--- a/team_specific_matrix/Arkansas_A.xlsx
+++ b/team_specific_matrix/Arkansas_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.188715953307393</v>
+        <v>0.1961367013372957</v>
       </c>
       <c r="C2">
-        <v>0.5603112840466926</v>
+        <v>0.5542347696879644</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0311284046692607</v>
+        <v>0.02674591381872214</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001945525291828794</v>
+        <v>0.001485884101040119</v>
       </c>
       <c r="P2">
-        <v>0.1186770428015564</v>
+        <v>0.1337295690936107</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09922178988326848</v>
+        <v>0.08766716196136701</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01027397260273973</v>
+        <v>0.008</v>
       </c>
       <c r="C3">
-        <v>0.02397260273972603</v>
+        <v>0.02133333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02054794520547945</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7413333333333333</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1952054794520548</v>
+        <v>0.2026666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06153846153846154</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6615384615384615</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2769230769230769</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1172638436482085</v>
+        <v>0.1113924050632911</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009771986970684038</v>
+        <v>0.01772151898734177</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0488599348534202</v>
+        <v>0.05569620253164557</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2149837133550489</v>
+        <v>0.2506329113924051</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01628664495114007</v>
+        <v>0.01518987341772152</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1530944625407166</v>
+        <v>0.1443037974683544</v>
       </c>
       <c r="R6">
-        <v>0.05863192182410423</v>
+        <v>0.05316455696202532</v>
       </c>
       <c r="S6">
-        <v>0.3811074918566775</v>
+        <v>0.3518987341772152</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1294765840220386</v>
+        <v>0.1284796573875803</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02754820936639119</v>
+        <v>0.0278372591006424</v>
       </c>
       <c r="E7">
-        <v>0.005509641873278237</v>
+        <v>0.004282655246252677</v>
       </c>
       <c r="F7">
-        <v>0.04958677685950413</v>
+        <v>0.04710920770877945</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1267217630853995</v>
+        <v>0.132762312633833</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01101928374655647</v>
+        <v>0.01284796573875803</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1928374655647383</v>
+        <v>0.1970021413276231</v>
       </c>
       <c r="R7">
-        <v>0.07162534435261708</v>
+        <v>0.08137044967880086</v>
       </c>
       <c r="S7">
-        <v>0.3856749311294766</v>
+        <v>0.3683083511777302</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1198347107438017</v>
+        <v>0.1225596529284165</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01652892561983471</v>
+        <v>0.01735357917570499</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05096418732782369</v>
+        <v>0.04663774403470716</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1212121212121212</v>
+        <v>0.1160520607375271</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01101928374655647</v>
+        <v>0.01084598698481562</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1515151515151515</v>
+        <v>0.1507592190889371</v>
       </c>
       <c r="R8">
-        <v>0.09917355371900827</v>
+        <v>0.09869848156182212</v>
       </c>
       <c r="S8">
-        <v>0.4297520661157025</v>
+        <v>0.4370932754880694</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.10546875</v>
+        <v>0.103125</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0859375</v>
+        <v>0.08437500000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.12890625</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.015625</v>
+        <v>0.0125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.17578125</v>
+        <v>0.18125</v>
       </c>
       <c r="R9">
-        <v>0.08984375</v>
+        <v>0.10625</v>
       </c>
       <c r="S9">
-        <v>0.3671875</v>
+        <v>0.35625</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1222158766419189</v>
+        <v>0.125</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02284408909194746</v>
+        <v>0.02429328621908127</v>
       </c>
       <c r="E10">
-        <v>0.001142204454597373</v>
+        <v>0.001325088339222615</v>
       </c>
       <c r="F10">
-        <v>0.07081667618503712</v>
+        <v>0.06846289752650177</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1222158766419189</v>
+        <v>0.1139575971731449</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01484865790976585</v>
+        <v>0.01369257950530035</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.202170188463735</v>
+        <v>0.2045053003533569</v>
       </c>
       <c r="R10">
-        <v>0.09194745859508852</v>
+        <v>0.09231448763250884</v>
       </c>
       <c r="S10">
-        <v>0.3517989720159909</v>
+        <v>0.3564487632508834</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1645299145299145</v>
+        <v>0.1527331189710611</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07905982905982906</v>
+        <v>0.08520900321543408</v>
       </c>
       <c r="K11">
-        <v>0.1987179487179487</v>
+        <v>0.1961414790996785</v>
       </c>
       <c r="L11">
-        <v>0.5384615384615384</v>
+        <v>0.5498392282958199</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01923076923076923</v>
+        <v>0.01607717041800643</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8102189781021898</v>
+        <v>0.7923497267759563</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1423357664233577</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="L12">
-        <v>0.02554744525547445</v>
+        <v>0.01912568306010929</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0218978102189781</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7654320987654321</v>
+        <v>0.7363636363636363</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2098765432098765</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02469135802469136</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02380952380952381</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2108843537414966</v>
+        <v>0.2180851063829787</v>
       </c>
       <c r="I15">
-        <v>0.06462585034013606</v>
+        <v>0.05585106382978723</v>
       </c>
       <c r="J15">
-        <v>0.3163265306122449</v>
+        <v>0.3297872340425532</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.06648936170212766</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02040816326530612</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N15">
-        <v>0.003401360544217687</v>
+        <v>0.002659574468085106</v>
       </c>
       <c r="O15">
-        <v>0.05782312925170068</v>
+        <v>0.07180851063829788</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2312925170068027</v>
+        <v>0.2074468085106383</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02229299363057325</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1624203821656051</v>
+        <v>0.1674641148325359</v>
       </c>
       <c r="I16">
-        <v>0.08917197452229299</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="J16">
-        <v>0.3471337579617834</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="K16">
-        <v>0.1050955414012739</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02866242038216561</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="N16">
-        <v>0.009554140127388535</v>
+        <v>0.007177033492822967</v>
       </c>
       <c r="O16">
-        <v>0.0732484076433121</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1624203821656051</v>
+        <v>0.1531100478468899</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02063492063492063</v>
+        <v>0.02101359703337454</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2111111111111111</v>
+        <v>0.2126081582200247</v>
       </c>
       <c r="I17">
-        <v>0.04126984126984127</v>
+        <v>0.04944375772558714</v>
       </c>
       <c r="J17">
-        <v>0.4142857142857143</v>
+        <v>0.4091470951792336</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0.1050679851668727</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0253968253968254</v>
+        <v>0.02719406674907293</v>
       </c>
       <c r="N17">
-        <v>0.001587301587301587</v>
+        <v>0.001236093943139679</v>
       </c>
       <c r="O17">
-        <v>0.05396825396825397</v>
+        <v>0.05438813349814586</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1317460317460317</v>
+        <v>0.1199011124845488</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009868421052631578</v>
+        <v>0.01763224181360202</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2072368421052632</v>
+        <v>0.2040302267002519</v>
       </c>
       <c r="I18">
-        <v>0.08223684210526316</v>
+        <v>0.07052896725440806</v>
       </c>
       <c r="J18">
-        <v>0.4144736842105263</v>
+        <v>0.3954659949622166</v>
       </c>
       <c r="K18">
-        <v>0.08881578947368421</v>
+        <v>0.1057934508816121</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02960526315789474</v>
+        <v>0.02518891687657431</v>
       </c>
       <c r="N18">
-        <v>0.003289473684210526</v>
+        <v>0.002518891687657431</v>
       </c>
       <c r="O18">
-        <v>0.03289473684210526</v>
+        <v>0.04030226700251889</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.131578947368421</v>
+        <v>0.1385390428211587</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00909577314071696</v>
+        <v>0.01097972972972973</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2193686463349385</v>
+        <v>0.2166385135135135</v>
       </c>
       <c r="I19">
-        <v>0.08453718566078117</v>
+        <v>0.08065878378378379</v>
       </c>
       <c r="J19">
-        <v>0.3354735152487962</v>
+        <v>0.3429054054054054</v>
       </c>
       <c r="K19">
-        <v>0.1198501872659176</v>
+        <v>0.1220439189189189</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02247191011235955</v>
+        <v>0.02533783783783784</v>
       </c>
       <c r="N19">
-        <v>0.001605136436597111</v>
+        <v>0.001266891891891892</v>
       </c>
       <c r="O19">
-        <v>0.07009095773140717</v>
+        <v>0.06883445945945946</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1375066880684858</v>
+        <v>0.1313344594594595</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arkansas_A.xlsx
+++ b/team_specific_matrix/Arkansas_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1961367013372957</v>
+        <v>0.1888586956521739</v>
       </c>
       <c r="C2">
-        <v>0.5542347696879644</v>
+        <v>0.5665760869565217</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02674591381872214</v>
+        <v>0.02581521739130435</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001485884101040119</v>
+        <v>0.001358695652173913</v>
       </c>
       <c r="P2">
-        <v>0.1337295690936107</v>
+        <v>0.1290760869565217</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08766716196136701</v>
+        <v>0.08831521739130435</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C3">
-        <v>0.02133333333333333</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02666666666666667</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7413333333333333</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2026666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05376344086021505</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6559139784946236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2903225806451613</v>
+        <v>0.2843137254901961</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1113924050632911</v>
+        <v>0.1051401869158878</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01772151898734177</v>
+        <v>0.02102803738317757</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05569620253164557</v>
+        <v>0.05841121495327103</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2506329113924051</v>
+        <v>0.2476635514018692</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01518987341772152</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1443037974683544</v>
+        <v>0.1425233644859813</v>
       </c>
       <c r="R6">
-        <v>0.05316455696202532</v>
+        <v>0.05373831775700934</v>
       </c>
       <c r="S6">
-        <v>0.3518987341772152</v>
+        <v>0.352803738317757</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1284796573875803</v>
+        <v>0.1381957773512476</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0278372591006424</v>
+        <v>0.02687140115163148</v>
       </c>
       <c r="E7">
-        <v>0.004282655246252677</v>
+        <v>0.003838771593090211</v>
       </c>
       <c r="F7">
-        <v>0.04710920770877945</v>
+        <v>0.04606525911708254</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.132762312633833</v>
+        <v>0.1285988483685221</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01284796573875803</v>
+        <v>0.01151631477927063</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1970021413276231</v>
+        <v>0.1900191938579655</v>
       </c>
       <c r="R7">
-        <v>0.08137044967880086</v>
+        <v>0.08445297504798464</v>
       </c>
       <c r="S7">
-        <v>0.3683083511777302</v>
+        <v>0.3704414587332054</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1225596529284165</v>
+        <v>0.119960668633235</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01735357917570499</v>
+        <v>0.01966568338249754</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04663774403470716</v>
+        <v>0.04621435594886922</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1160520607375271</v>
+        <v>0.1170108161258604</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01084598698481562</v>
+        <v>0.01081612586037365</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1507592190889371</v>
+        <v>0.1553588987217306</v>
       </c>
       <c r="R8">
-        <v>0.09869848156182212</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="S8">
-        <v>0.4370932754880694</v>
+        <v>0.4336283185840708</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.103125</v>
+        <v>0.1088825214899714</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03125</v>
+        <v>0.02865329512893983</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08437500000000001</v>
+        <v>0.07736389684813753</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1174785100286533</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0125</v>
+        <v>0.01146131805157593</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.18125</v>
+        <v>0.1805157593123209</v>
       </c>
       <c r="R9">
-        <v>0.10625</v>
+        <v>0.09742120343839542</v>
       </c>
       <c r="S9">
-        <v>0.35625</v>
+        <v>0.3782234957020058</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.125</v>
+        <v>0.1251509054325956</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02429328621908127</v>
+        <v>0.02293762575452716</v>
       </c>
       <c r="E10">
-        <v>0.001325088339222615</v>
+        <v>0.001609657947686117</v>
       </c>
       <c r="F10">
-        <v>0.06846289752650177</v>
+        <v>0.06841046277665996</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1139575971731449</v>
+        <v>0.1138832997987928</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01369257950530035</v>
+        <v>0.01569416498993964</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2045053003533569</v>
+        <v>0.2056338028169014</v>
       </c>
       <c r="R10">
-        <v>0.09231448763250884</v>
+        <v>0.09255533199195171</v>
       </c>
       <c r="S10">
-        <v>0.3564487632508834</v>
+        <v>0.3541247484909457</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1527331189710611</v>
+        <v>0.1516034985422741</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08520900321543408</v>
+        <v>0.08017492711370262</v>
       </c>
       <c r="K11">
-        <v>0.1961414790996785</v>
+        <v>0.1909620991253644</v>
       </c>
       <c r="L11">
-        <v>0.5498392282958199</v>
+        <v>0.5626822157434402</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01607717041800643</v>
+        <v>0.01457725947521866</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7923497267759563</v>
+        <v>0.7971014492753623</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1584699453551913</v>
+        <v>0.1570048309178744</v>
       </c>
       <c r="K12">
-        <v>0.00546448087431694</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="L12">
-        <v>0.01912568306010929</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02459016393442623</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7363636363636363</v>
+        <v>0.725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2090909090909091</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05454545454545454</v>
+        <v>0.05833333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02659574468085106</v>
+        <v>0.024330900243309</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2180851063829787</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="I15">
-        <v>0.05585106382978723</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="J15">
-        <v>0.3297872340425532</v>
+        <v>0.3114355231143552</v>
       </c>
       <c r="K15">
-        <v>0.06648936170212766</v>
+        <v>0.06326034063260341</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02127659574468085</v>
+        <v>0.0194647201946472</v>
       </c>
       <c r="N15">
-        <v>0.002659574468085106</v>
+        <v>0.0024330900243309</v>
       </c>
       <c r="O15">
-        <v>0.07180851063829788</v>
+        <v>0.072992700729927</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2074468085106383</v>
+        <v>0.2287104622871046</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02392344497607655</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1674641148325359</v>
+        <v>0.1731601731601732</v>
       </c>
       <c r="I16">
-        <v>0.09330143540669857</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="J16">
-        <v>0.3444976076555024</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="K16">
-        <v>0.1148325358851675</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02870813397129187</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N16">
-        <v>0.007177033492822967</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="O16">
-        <v>0.06698564593301436</v>
+        <v>0.0670995670995671</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1531100478468899</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02101359703337454</v>
+        <v>0.02015677491601344</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2126081582200247</v>
+        <v>0.2138857782754759</v>
       </c>
       <c r="I17">
-        <v>0.04944375772558714</v>
+        <v>0.05487122060470324</v>
       </c>
       <c r="J17">
-        <v>0.4091470951792336</v>
+        <v>0.4053751399776036</v>
       </c>
       <c r="K17">
-        <v>0.1050679851668727</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02719406674907293</v>
+        <v>0.02799552071668533</v>
       </c>
       <c r="N17">
-        <v>0.001236093943139679</v>
+        <v>0.001119820828667413</v>
       </c>
       <c r="O17">
-        <v>0.05438813349814586</v>
+        <v>0.05375139977603583</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1199011124845488</v>
+        <v>0.1175811870100784</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01763224181360202</v>
+        <v>0.0162037037037037</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2040302267002519</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I18">
-        <v>0.07052896725440806</v>
+        <v>0.07175925925925926</v>
       </c>
       <c r="J18">
-        <v>0.3954659949622166</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="K18">
-        <v>0.1057934508816121</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02518891687657431</v>
+        <v>0.02546296296296296</v>
       </c>
       <c r="N18">
-        <v>0.002518891687657431</v>
+        <v>0.002314814814814815</v>
       </c>
       <c r="O18">
-        <v>0.04030226700251889</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1385390428211587</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01097972972972973</v>
+        <v>0.01117964533538936</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2166385135135135</v>
+        <v>0.2197378565921357</v>
       </c>
       <c r="I19">
-        <v>0.08065878378378379</v>
+        <v>0.07787201233616037</v>
       </c>
       <c r="J19">
-        <v>0.3429054054054054</v>
+        <v>0.3492675404780262</v>
       </c>
       <c r="K19">
-        <v>0.1220439189189189</v>
+        <v>0.1214340786430224</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02533783783783784</v>
+        <v>0.02467232074016962</v>
       </c>
       <c r="N19">
-        <v>0.001266891891891892</v>
+        <v>0.001156515034695451</v>
       </c>
       <c r="O19">
-        <v>0.06883445945945946</v>
+        <v>0.06630686198920586</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1313344594594595</v>
+        <v>0.1283731688511951</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Arkansas_A.xlsx
+++ b/team_specific_matrix/Arkansas_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1888586956521739</v>
+        <v>0.1871727748691099</v>
       </c>
       <c r="C2">
-        <v>0.5665760869565217</v>
+        <v>0.569371727748691</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02581521739130435</v>
+        <v>0.02486910994764398</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001358695652173913</v>
+        <v>0.00130890052356021</v>
       </c>
       <c r="P2">
-        <v>0.1290760869565217</v>
+        <v>0.1282722513089005</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08831521739130435</v>
+        <v>0.08900523560209424</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007142857142857143</v>
+        <v>0.01138952164009112</v>
       </c>
       <c r="C3">
-        <v>0.02142857142857143</v>
+        <v>0.02050113895216401</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02857142857142857</v>
+        <v>0.02733485193621868</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7428571428571429</v>
+        <v>0.744874715261959</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1958997722095672</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04901960784313725</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2843137254901961</v>
+        <v>0.2735849056603774</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1051401869158878</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02102803738317757</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05841121495327103</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2476635514018692</v>
+        <v>0.2488584474885845</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01869158878504673</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1425233644859813</v>
+        <v>0.1438356164383562</v>
       </c>
       <c r="R6">
-        <v>0.05373831775700934</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="S6">
-        <v>0.352803738317757</v>
+        <v>0.3515981735159817</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1381957773512476</v>
+        <v>0.1396648044692737</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02687140115163148</v>
+        <v>0.0260707635009311</v>
       </c>
       <c r="E7">
-        <v>0.003838771593090211</v>
+        <v>0.0037243947858473</v>
       </c>
       <c r="F7">
-        <v>0.04606525911708254</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1285988483685221</v>
+        <v>0.1284916201117318</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01151631477927063</v>
+        <v>0.01303538175046555</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1900191938579655</v>
+        <v>0.1918063314711359</v>
       </c>
       <c r="R7">
-        <v>0.08445297504798464</v>
+        <v>0.08193668528864059</v>
       </c>
       <c r="S7">
-        <v>0.3704414587332054</v>
+        <v>0.3705772811918063</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.119960668633235</v>
+        <v>0.1202651515151515</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01966568338249754</v>
+        <v>0.01988636363636364</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04621435594886922</v>
+        <v>0.04450757575757576</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1170108161258604</v>
+        <v>0.1174242424242424</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01081612586037365</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1553588987217306</v>
+        <v>0.15625</v>
       </c>
       <c r="R8">
-        <v>0.09734513274336283</v>
+        <v>0.09659090909090909</v>
       </c>
       <c r="S8">
-        <v>0.4336283185840708</v>
+        <v>0.4346590909090909</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1088825214899714</v>
+        <v>0.1114206128133705</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02865329512893983</v>
+        <v>0.02785515320334262</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07736389684813753</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1174785100286533</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01146131805157593</v>
+        <v>0.01114206128133705</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1805157593123209</v>
+        <v>0.1838440111420613</v>
       </c>
       <c r="R9">
-        <v>0.09742120343839542</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="S9">
-        <v>0.3782234957020058</v>
+        <v>0.3704735376044568</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1251509054325956</v>
+        <v>0.1248550444530344</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02293762575452716</v>
+        <v>0.02319288751449556</v>
       </c>
       <c r="E10">
-        <v>0.001609657947686117</v>
+        <v>0.00154619250096637</v>
       </c>
       <c r="F10">
-        <v>0.06841046277665996</v>
+        <v>0.06725937379203711</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1138832997987928</v>
+        <v>0.1140316969462698</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01569416498993964</v>
+        <v>0.01623502126014689</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2056338028169014</v>
+        <v>0.2060301507537688</v>
       </c>
       <c r="R10">
-        <v>0.09255533199195171</v>
+        <v>0.09006571318129107</v>
       </c>
       <c r="S10">
-        <v>0.3541247484909457</v>
+        <v>0.3567839195979899</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1516034985422741</v>
+        <v>0.1492957746478873</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08017492711370262</v>
+        <v>0.08309859154929577</v>
       </c>
       <c r="K11">
-        <v>0.1909620991253644</v>
+        <v>0.1901408450704225</v>
       </c>
       <c r="L11">
-        <v>0.5626822157434402</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01457725947521866</v>
+        <v>0.01408450704225352</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7971014492753623</v>
+        <v>0.7962529274004684</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1570048309178744</v>
+        <v>0.1592505854800937</v>
       </c>
       <c r="K12">
-        <v>0.004830917874396135</v>
+        <v>0.00468384074941452</v>
       </c>
       <c r="L12">
-        <v>0.01932367149758454</v>
+        <v>0.01873536299765808</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02173913043478261</v>
+        <v>0.02107728337236534</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.725</v>
+        <v>0.728</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2166666666666667</v>
+        <v>0.216</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05833333333333333</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.024330900243309</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.218978102189781</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="I15">
-        <v>0.0583941605839416</v>
+        <v>0.05868544600938967</v>
       </c>
       <c r="J15">
-        <v>0.3114355231143552</v>
+        <v>0.3075117370892019</v>
       </c>
       <c r="K15">
-        <v>0.06326034063260341</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0194647201946472</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="N15">
-        <v>0.0024330900243309</v>
+        <v>0.002347417840375587</v>
       </c>
       <c r="O15">
-        <v>0.072992700729927</v>
+        <v>0.07276995305164319</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2287104622871046</v>
+        <v>0.2323943661971831</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02164502164502164</v>
+        <v>0.02277432712215321</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1731601731601732</v>
+        <v>0.1780538302277433</v>
       </c>
       <c r="I16">
-        <v>0.08441558441558442</v>
+        <v>0.08488612836438923</v>
       </c>
       <c r="J16">
-        <v>0.3506493506493507</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="K16">
-        <v>0.1233766233766234</v>
+        <v>0.1221532091097308</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0303030303030303</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="N16">
-        <v>0.006493506493506494</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="O16">
-        <v>0.0670995670995671</v>
+        <v>0.06418219461697723</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02015677491601344</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2138857782754759</v>
+        <v>0.2161290322580645</v>
       </c>
       <c r="I17">
-        <v>0.05487122060470324</v>
+        <v>0.05591397849462366</v>
       </c>
       <c r="J17">
-        <v>0.4053751399776036</v>
+        <v>0.4053763440860215</v>
       </c>
       <c r="K17">
-        <v>0.1052631578947368</v>
+        <v>0.1053763440860215</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02799552071668533</v>
+        <v>0.02795698924731183</v>
       </c>
       <c r="N17">
-        <v>0.001119820828667413</v>
+        <v>0.001075268817204301</v>
       </c>
       <c r="O17">
-        <v>0.05375139977603583</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1175811870100784</v>
+        <v>0.1150537634408602</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0162037037037037</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1944444444444444</v>
+        <v>0.1927437641723356</v>
       </c>
       <c r="I18">
-        <v>0.07175925925925926</v>
+        <v>0.07029478458049887</v>
       </c>
       <c r="J18">
-        <v>0.3981481481481481</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K18">
-        <v>0.1157407407407407</v>
+        <v>0.1179138321995465</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02546296296296296</v>
+        <v>0.02494331065759637</v>
       </c>
       <c r="N18">
-        <v>0.002314814814814815</v>
+        <v>0.002267573696145125</v>
       </c>
       <c r="O18">
-        <v>0.03703703703703703</v>
+        <v>0.03854875283446712</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1388888888888889</v>
+        <v>0.1405895691609977</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01117964533538936</v>
+        <v>0.01151560178306092</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2197378565921357</v>
+        <v>0.2191679049034175</v>
       </c>
       <c r="I19">
-        <v>0.07787201233616037</v>
+        <v>0.07652303120356613</v>
       </c>
       <c r="J19">
-        <v>0.3492675404780262</v>
+        <v>0.3528974739970283</v>
       </c>
       <c r="K19">
-        <v>0.1214340786430224</v>
+        <v>0.1210995542347697</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02467232074016962</v>
+        <v>0.02451708766716196</v>
       </c>
       <c r="N19">
-        <v>0.001156515034695451</v>
+        <v>0.001485884101040119</v>
       </c>
       <c r="O19">
-        <v>0.06630686198920586</v>
+        <v>0.06537890044576523</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1283731688511951</v>
+        <v>0.1274145616641902</v>
       </c>
     </row>
   </sheetData>
